--- a/models/calculation engines/Supply Demand Costs n Prices Alcoa/outputs/supply/On_market_supply.xlsx
+++ b/models/calculation engines/Supply Demand Costs n Prices Alcoa/outputs/supply/On_market_supply.xlsx
@@ -497,37 +497,37 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.099999999481598</v>
+        <v>0.7096842100328935</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.911999861358709e-10</v>
+        <v>-8.590405263299308</v>
       </c>
       <c r="F2" t="n">
-        <v>-6.911999861358709e-10</v>
+        <v>-8.590405263299308</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.911999861358709e-10</v>
+        <v>-1.479824563274997</v>
       </c>
       <c r="H2" t="n">
-        <v>-6.911999861358709e-10</v>
+        <v>-1.479824563274997</v>
       </c>
       <c r="I2" t="n">
-        <v>-10.800000000768</v>
+        <v>-19.15931578970669</v>
       </c>
       <c r="J2" t="n">
-        <v>-10.800000000768</v>
+        <v>-13.479824563275</v>
       </c>
       <c r="K2" t="n">
-        <v>-10.800000000768</v>
+        <v>-13.479824563275</v>
       </c>
       <c r="L2" t="n">
-        <v>-10.800000000768</v>
+        <v>-22.8</v>
       </c>
       <c r="M2" t="n">
-        <v>-10.800000000768</v>
+        <v>-19.15931578970669</v>
       </c>
       <c r="N2" t="n">
-        <v>11.999999999232</v>
+        <v>3.640684210293315</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +545,37 @@
         <v>3.307</v>
       </c>
       <c r="D3" t="n">
-        <v>5.265000000065807</v>
+        <v>15.741</v>
       </c>
       <c r="E3" t="n">
-        <v>5.265000000065807</v>
+        <v>11.64834</v>
       </c>
       <c r="F3" t="n">
-        <v>8.343000000104293</v>
+        <v>1.259279999999998</v>
       </c>
       <c r="G3" t="n">
-        <v>8.343000000104293</v>
+        <v>2.223947368278722</v>
       </c>
       <c r="H3" t="n">
-        <v>8.343000000104293</v>
+        <v>3.640684210293315</v>
       </c>
       <c r="I3" t="n">
-        <v>8.343000000104293</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>8.343000000104293</v>
+        <v>3.640684210293315</v>
       </c>
       <c r="K3" t="n">
-        <v>9.270000000115873</v>
+        <v>3.640684210293315</v>
       </c>
       <c r="L3" t="n">
-        <v>9.270000000115873</v>
+        <v>9.320175436725004</v>
       </c>
       <c r="M3" t="n">
-        <v>9.270000000115873</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>9.270000000115873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -593,37 +593,37 @@
         <v>17.2</v>
       </c>
       <c r="D4" t="n">
-        <v>6.000000000305579</v>
+        <v>8.099999999481598</v>
       </c>
       <c r="E4" t="n">
-        <v>6.000000000305579</v>
+        <v>10.7999999993088</v>
       </c>
       <c r="F4" t="n">
-        <v>6.000000000305579</v>
+        <v>2.079447766965003</v>
       </c>
       <c r="G4" t="n">
-        <v>5.999999999096254</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>5.999999999096254</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>5.999999999096254</v>
+        <v>11.999999999232</v>
       </c>
       <c r="J4" t="n">
-        <v>5.999999999096254</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>5.999999999096254</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>5.999999999096254</v>
+        <v>3.640684210293315</v>
       </c>
       <c r="M4" t="n">
-        <v>5.999999999096254</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>5.999999999096254</v>
+        <v>11.999999999232</v>
       </c>
     </row>
     <row r="5">
@@ -641,37 +641,37 @@
         <v>7.564</v>
       </c>
       <c r="D5" t="n">
-        <v>8.000000000099996</v>
+        <v>3.44814814819125</v>
       </c>
       <c r="E5" t="n">
-        <v>8.000000000099996</v>
+        <v>3.44814814819125</v>
       </c>
       <c r="F5" t="n">
-        <v>8.000000000099996</v>
+        <v>10.7999999993088</v>
       </c>
       <c r="G5" t="n">
-        <v>8.000000000099996</v>
+        <v>10.7999999993088</v>
       </c>
       <c r="H5" t="n">
-        <v>8.000000000099996</v>
+        <v>10.7999999993088</v>
       </c>
       <c r="I5" t="n">
-        <v>8.000000000099996</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>8.000000000099996</v>
+        <v>11.999999999232</v>
       </c>
       <c r="K5" t="n">
-        <v>8.000000000099996</v>
+        <v>11.999999999232</v>
       </c>
       <c r="L5" t="n">
-        <v>8.000000000099996</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>8.000000000099996</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>8.000000000099996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -689,22 +689,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-5</v>
+        <v>-3.862448082033443</v>
       </c>
       <c r="E6" t="n">
-        <v>-5</v>
+        <v>2.157781578668966</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>3.44814814819125</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>3.44814814819125</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.055184135818397</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -713,13 +713,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>11.999999999232</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>11.999999999232</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.346175637191003</v>
       </c>
     </row>
     <row r="7">
@@ -743,31 +743,31 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>7.401235662643898</v>
+        <v>7.157781578668966</v>
       </c>
       <c r="G7" t="n">
-        <v>8.000000000099991</v>
+        <v>1.055184135818397</v>
       </c>
       <c r="H7" t="n">
-        <v>8.000000000100009</v>
+        <v>1.055184135818397</v>
       </c>
       <c r="I7" t="n">
-        <v>8.000000000099991</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>8.000000000100009</v>
+        <v>1.055184135818397</v>
       </c>
       <c r="K7" t="n">
-        <v>8.000000000099991</v>
+        <v>1.055184135818397</v>
       </c>
       <c r="L7" t="n">
-        <v>8.000000000099991</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>8.000000000099991</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>8.000000000100009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -785,13 +785,13 @@
         <v>14.436</v>
       </c>
       <c r="D8" t="n">
-        <v>14.99999999850001</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>11.09999999889</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1.199999999880002</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>5.405326118037379</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -809,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.055184135818397</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.055184135818397</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>5.28194584094393</v>
       </c>
     </row>
     <row r="9">
@@ -833,37 +833,37 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-5</v>
+        <v>8.993615638034999</v>
       </c>
       <c r="E9" t="n">
-        <v>-5</v>
+        <v>9.487442798535</v>
       </c>
       <c r="F9" t="n">
-        <v>1.600000000062504</v>
+        <v>-3.4</v>
       </c>
       <c r="G9" t="n">
-        <v>10.00000000012501</v>
+        <v>5.452098746295854</v>
       </c>
       <c r="H9" t="n">
-        <v>10.00000000012501</v>
+        <v>5.428925292248937</v>
       </c>
       <c r="I9" t="n">
-        <v>10.00000000012501</v>
+        <v>17.03194211269575</v>
       </c>
       <c r="J9" t="n">
-        <v>10.00000000012501</v>
+        <v>5.381350891699642</v>
       </c>
       <c r="K9" t="n">
-        <v>10.00000000012501</v>
+        <v>5.357024211315256</v>
       </c>
       <c r="L9" t="n">
-        <v>10.00000000012501</v>
+        <v>5.332354161932229</v>
       </c>
       <c r="M9" t="n">
-        <v>10.00000000012501</v>
+        <v>5.307334949311887</v>
       </c>
       <c r="N9" t="n">
-        <v>10.00000000012501</v>
+        <v>18.95238107019576</v>
       </c>
     </row>
     <row r="10">
@@ -881,37 +881,37 @@
         <v>0.752999999999996</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>5.290909090380005</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1.834090908907496</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>15.31048806603501</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>16.75759369019574</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>17.03194211269575</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2.204545454325003</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.03194211269575</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>18.12933580269577</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>18.67803264769575</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>18.95238107019576</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2.713068181546875</v>
       </c>
     </row>
     <row r="11">
@@ -935,31 +935,31 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.834090908907496</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.204545454325003</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2.204545454325003</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>7.205882353031244</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2.204545454325003</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>2.204545454325003</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>2.204545454325003</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>2.204545454325003</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.376470588252496</v>
       </c>
     </row>
     <row r="12">
@@ -986,28 +986,28 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3.088235294156246</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>6.176470588312503</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>19.10180412572085</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.369411764723004</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1.369411764723004</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.369411764723004</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.369411764723004</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>19.10180412572085</v>
       </c>
     </row>
     <row r="13">
@@ -1025,37 +1025,37 @@
         <v>0.411000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.627688218957035</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>3.535803485480788</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>14.20393346942094</v>
       </c>
       <c r="H13" t="n">
-        <v>2.500000000263014</v>
+        <v>19.10180412572085</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>19.10180412572085</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>19.10180412572087</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8207707990554127</v>
+        <v>19.10180412572085</v>
       </c>
       <c r="M13" t="n">
-        <v>2.500000000263014</v>
+        <v>19.10180412572087</v>
       </c>
       <c r="N13" t="n">
-        <v>2.499999999885008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1079,31 +1079,31 @@
         <v>-0.299999999999997</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9000000001262505</v>
+        <v>5.414620579066241</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9000000001262505</v>
+        <v>-0.299999999999997</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9000000001262505</v>
+        <v>-0.299999999999997</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9000000001262505</v>
+        <v>-0.299999999999997</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9000000001262505</v>
+        <v>-0.299999999999997</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9000000001262505</v>
+        <v>-0.299999999999997</v>
       </c>
       <c r="L14" t="n">
-        <v>0.90000000012623</v>
+        <v>-0.299999999999997</v>
       </c>
       <c r="M14" t="n">
-        <v>0.90000000012623</v>
+        <v>-0.299999999999997</v>
       </c>
       <c r="N14" t="n">
-        <v>1.199999999820594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1121,37 +1121,37 @@
         <v>1.11400000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>3.700000000389241</v>
+        <v>13.13914300539141</v>
       </c>
       <c r="E15" t="n">
-        <v>3.700000000389241</v>
+        <v>10.29367210589389</v>
       </c>
       <c r="F15" t="n">
-        <v>3.700000000389241</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>8.200000000862634</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>8.200000000862634</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>8.200000000862634</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>8.200000000862634</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>8.200000000862634</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>10.50000000110461</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>10.50000000110461</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>10.50000000159599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1172,34 +1172,34 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>3.859793814839034</v>
       </c>
       <c r="F16" t="n">
-        <v>2.250000000236696</v>
+        <v>14.20393346942094</v>
       </c>
       <c r="G16" t="n">
-        <v>4.500000000473391</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>4.500000000473391</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>9.000000000946804</v>
+        <v>9.649484537097596</v>
       </c>
       <c r="J16" t="n">
-        <v>9.000000000946804</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>9.000000000946804</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>9.000000000946804</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>9.000000000946804</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>10.000000000746</v>
+        <v>8.404040402783997</v>
       </c>
     </row>
     <row r="17">
@@ -1217,37 +1217,37 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7.199999999495781</v>
+        <v>2.164036082701884</v>
       </c>
       <c r="E17" t="n">
-        <v>7.199999999495792</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>7.199999999495781</v>
+        <v>9.649484537097596</v>
       </c>
       <c r="G17" t="n">
-        <v>4.949999999653349</v>
+        <v>9.649484537097596</v>
       </c>
       <c r="H17" t="n">
-        <v>3.399999999761901</v>
+        <v>9.649484537097596</v>
       </c>
       <c r="I17" t="n">
-        <v>3.399999999761901</v>
+        <v>1.500000000157804</v>
       </c>
       <c r="J17" t="n">
-        <v>3.399999999761901</v>
+        <v>10.721649485664</v>
       </c>
       <c r="K17" t="n">
-        <v>3.399999999761901</v>
+        <v>10.721649485664</v>
       </c>
       <c r="L17" t="n">
-        <v>3.399999999761901</v>
+        <v>10.721649485664</v>
       </c>
       <c r="M17" t="n">
-        <v>3.399999999761901</v>
+        <v>10.721649485664</v>
       </c>
       <c r="N17" t="n">
-        <v>3.399999999761901</v>
+        <v>1.938302752588201</v>
       </c>
     </row>
     <row r="18">
@@ -1265,37 +1265,37 @@
         <v>1.188</v>
       </c>
       <c r="D18" t="n">
-        <v>1.799999999733088</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1.799999999733088</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.799999999733088</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.799999999823241</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1.799999999823241</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.799999999823241</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1.799999999823241</v>
+        <v>2.178092783734292</v>
       </c>
       <c r="K18" t="n">
-        <v>1.799999999823241</v>
+        <v>2.178092783734292</v>
       </c>
       <c r="L18" t="n">
-        <v>1.799999999823241</v>
+        <v>2.178092783734292</v>
       </c>
       <c r="M18" t="n">
-        <v>1.799999999823241</v>
+        <v>2.178092783734292</v>
       </c>
       <c r="N18" t="n">
-        <v>1.799999999823241</v>
+        <v>7.641921397949996</v>
       </c>
     </row>
     <row r="19">
@@ -1322,25 +1322,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>4.958466453187204</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>4.958466453187204</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>3.305644302124797</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>8.335390148979933</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>9.261544609977703</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>9.261544609977703</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>9.261544609977703</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1361,13 +1361,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.6056641470890377</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>7.959955630469373</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>11.69789061010962</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1.652822151062399</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1409,22 +1409,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>2.079896907435296</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>6.000000000631196</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>6.000000000631206</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>6.852589448475605</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>14.47523272815859</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>5.941116915028352</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>14.16609624558026</v>
       </c>
     </row>
     <row r="22">
@@ -1463,16 +1463,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>2.8499999998176</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.8499999998176</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>8.581961169219602</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1481,13 +1481,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>9.020618557649996</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>9.020618557649996</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>11.255836814154</v>
       </c>
     </row>
     <row r="23">
@@ -1508,34 +1508,34 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1.800000000346502</v>
+        <v>2.079447766965003</v>
       </c>
       <c r="F23" t="n">
-        <v>1.800000000346502</v>
+        <v>3.52813959179028</v>
       </c>
       <c r="G23" t="n">
-        <v>1.800000000346502</v>
+        <v>4.290980584609802</v>
       </c>
       <c r="H23" t="n">
-        <v>1.800000000346502</v>
+        <v>4.290980584609802</v>
       </c>
       <c r="I23" t="n">
-        <v>1.800000000346502</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.800000000346502</v>
+        <v>8.581961169219602</v>
       </c>
       <c r="K23" t="n">
-        <v>1.800000000346502</v>
+        <v>8.581961169219602</v>
       </c>
       <c r="L23" t="n">
-        <v>1.800000000346502</v>
+        <v>8.581961169219602</v>
       </c>
       <c r="M23" t="n">
-        <v>1.800000000346502</v>
+        <v>8.581961169219602</v>
       </c>
       <c r="N23" t="n">
-        <v>1.800000000346502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1697,37 +1697,37 @@
         <v>1.74</v>
       </c>
       <c r="D27" t="n">
-        <v>1.999999999998004</v>
+        <v>1.991614255717502</v>
       </c>
       <c r="E27" t="n">
-        <v>1.999999999998004</v>
+        <v>1.001630561355001</v>
       </c>
       <c r="F27" t="n">
-        <v>1.999999999998004</v>
+        <v>1.001630561355001</v>
       </c>
       <c r="G27" t="n">
-        <v>4.499999999995502</v>
+        <v>1.853658536571002</v>
       </c>
       <c r="H27" t="n">
-        <v>6.999999999993001</v>
+        <v>1.853658536570993</v>
       </c>
       <c r="I27" t="n">
-        <v>6.999999999993001</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>6.999999999993001</v>
+        <v>1.853658536571002</v>
       </c>
       <c r="K27" t="n">
-        <v>6.999999999993001</v>
+        <v>1.853658536571002</v>
       </c>
       <c r="L27" t="n">
-        <v>6.999999999993001</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>6.999999999993001</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>6.999999999993001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1745,37 +1745,37 @@
         <v>0.138999999999997</v>
       </c>
       <c r="D28" t="n">
-        <v>1.000000000196637</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1.000000000196637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.000000000196637</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.000000000196637</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1.000000000196637</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.000000000196637</v>
+        <v>9.641212121202482</v>
       </c>
       <c r="J28" t="n">
-        <v>1.000000000196637</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1.000000000196637</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1.000000000196637</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.000000000196637</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1.000000000196637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1850,28 +1850,28 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9539685149786096</v>
+        <v>6.351459170580001</v>
       </c>
       <c r="H30" t="n">
-        <v>9.000000000201615</v>
+        <v>6.351459170580001</v>
       </c>
       <c r="I30" t="n">
-        <v>3.640134575402024</v>
+        <v>6.351459170580001</v>
       </c>
       <c r="J30" t="n">
-        <v>1.700334815743179</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>5.468966159310488</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>10.000000000224</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>10.000000000224</v>
+        <v>6.351459170580001</v>
       </c>
       <c r="N30" t="n">
-        <v>10.000000000224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1889,37 +1889,37 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.529999999460921</v>
+        <v>2.017104273549457</v>
       </c>
       <c r="E31" t="n">
-        <v>3.329999999096922</v>
+        <v>2.017104273549457</v>
       </c>
       <c r="F31" t="n">
-        <v>5.40000000100475</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>5.400000001521626</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>5.399999999961752</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>5.400000000006223</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>5.400000001303795</v>
+        <v>6.351459170580001</v>
       </c>
       <c r="K31" t="n">
-        <v>5.400000000404692</v>
+        <v>6.351459170580001</v>
       </c>
       <c r="L31" t="n">
-        <v>5.399999998901897</v>
+        <v>6.351459170580001</v>
       </c>
       <c r="M31" t="n">
-        <v>5.399999998867688</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>5.399999998086761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1985,37 +1985,37 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1.200280000014996</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1.200280000014996</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1.200280000014996</v>
       </c>
       <c r="G33" t="n">
-        <v>1.999999999598396</v>
+        <v>2.026666666281596</v>
       </c>
       <c r="H33" t="n">
-        <v>2.999999999397603</v>
+        <v>3.039999999422403</v>
       </c>
       <c r="I33" t="n">
-        <v>2.999999999397603</v>
+        <v>1.200280000014996</v>
       </c>
       <c r="J33" t="n">
-        <v>2.999999999397603</v>
+        <v>3.039999999422403</v>
       </c>
       <c r="K33" t="n">
-        <v>2.999999999397603</v>
+        <v>3.039999999422403</v>
       </c>
       <c r="L33" t="n">
-        <v>2.999999999397603</v>
+        <v>3.039999999422403</v>
       </c>
       <c r="M33" t="n">
-        <v>2.999999999397603</v>
+        <v>1.200280000014996</v>
       </c>
       <c r="N33" t="n">
-        <v>2.999999999397603</v>
+        <v>8.673469387200001</v>
       </c>
     </row>
     <row r="34">
@@ -2033,37 +2033,37 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>8.673469387200001</v>
       </c>
       <c r="E34" t="n">
-        <v>3.644999999766713</v>
+        <v>8.673469387200001</v>
       </c>
       <c r="F34" t="n">
-        <v>4.859999999688965</v>
+        <v>8.673469387200001</v>
       </c>
       <c r="G34" t="n">
-        <v>7.289999999533447</v>
+        <v>1.200280000014996</v>
       </c>
       <c r="H34" t="n">
-        <v>8.099999999481598</v>
+        <v>1.200280000014996</v>
       </c>
       <c r="I34" t="n">
-        <v>8.099999999481609</v>
+        <v>8.673469387200001</v>
       </c>
       <c r="J34" t="n">
-        <v>8.099999999481609</v>
+        <v>1.200280000014996</v>
       </c>
       <c r="K34" t="n">
-        <v>8.099999999481609</v>
+        <v>1.200280000014996</v>
       </c>
       <c r="L34" t="n">
-        <v>8.999999999424009</v>
+        <v>1.200280000014996</v>
       </c>
       <c r="M34" t="n">
-        <v>8.999999999424009</v>
+        <v>8.673469387200001</v>
       </c>
       <c r="N34" t="n">
-        <v>8.999999999424009</v>
+        <v>9.261544609977703</v>
       </c>
     </row>
     <row r="35">
@@ -2081,37 +2081,37 @@
         <v>0.765999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4999999992499985</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4999999992499985</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4999999992499985</v>
+        <v>4.6600877183625</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4999999992499985</v>
+        <v>8.673469387200001</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4999999992499985</v>
+        <v>8.673469387200001</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4999999992499985</v>
+        <v>9.320175436725</v>
       </c>
       <c r="J35" t="n">
-        <v>0.4999999992499985</v>
+        <v>8.673469387200001</v>
       </c>
       <c r="K35" t="n">
-        <v>0.4999999992499985</v>
+        <v>8.673469387200001</v>
       </c>
       <c r="L35" t="n">
-        <v>0.4999999992499985</v>
+        <v>8.673469387200001</v>
       </c>
       <c r="M35" t="n">
-        <v>0.4999999992499985</v>
+        <v>9.320175436725004</v>
       </c>
       <c r="N35" t="n">
-        <v>0.4999999992499985</v>
+        <v>9.320175436725004</v>
       </c>
     </row>
     <row r="36">
@@ -2129,37 +2129,37 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>2.939393939391004</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1.410909090907676</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1.410909090907676</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>9.641212121202482</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>9.641212121202482</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2.084610577436372</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>9.641212121202482</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>9.641212121202482</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>12.34545454544219</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>12.34545454544219</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>13.8727272727134</v>
       </c>
     </row>
     <row r="37">
@@ -2177,37 +2177,37 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.586538461574003</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1.586538461574003</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.586538461574003</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>3.569711538541502</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>5.552884615509003</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>5.552884615509003</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.552884615509003</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>5.552884615509003</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>5.552884615509003</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>5.552884615509003</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>5.552884615509003</v>
       </c>
     </row>
     <row r="38">
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2.299999999697559</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -2276,34 +2276,34 @@
         <v>-7.74291212222351</v>
       </c>
       <c r="E39" t="n">
-        <v>-9.10720012731616</v>
+        <v>-5.509537789657426</v>
       </c>
       <c r="F39" t="n">
-        <v>-7.80989561508451</v>
+        <v>-3.013012498206185</v>
       </c>
       <c r="G39" t="n">
-        <v>-6.02659296346302</v>
+        <v>1.168731711854467</v>
       </c>
       <c r="H39" t="n">
-        <v>1.075699005677813</v>
+        <v>7.195971152440665</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.99480519479721</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>7.99480519479721</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>7.99480519479721</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>8.883116883108011</v>
       </c>
       <c r="M39" t="n">
-        <v>1.005713761329403</v>
+        <v>8.883116883108011</v>
       </c>
       <c r="N39" t="n">
-        <v>5.040060345741979</v>
+        <v>8.883116883108011</v>
       </c>
     </row>
     <row r="40">
@@ -2321,37 +2321,37 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>6.00837509633256</v>
       </c>
       <c r="E40" t="n">
-        <v>2.770804920653047</v>
+        <v>6.012595270508577</v>
       </c>
       <c r="F40" t="n">
-        <v>4.499999999408259</v>
+        <v>5.939165184493858</v>
       </c>
       <c r="G40" t="n">
-        <v>4.499999999408259</v>
+        <v>6.402777028238249</v>
       </c>
       <c r="H40" t="n">
-        <v>5.999999999210999</v>
+        <v>6.296921174506498</v>
       </c>
       <c r="I40" t="n">
-        <v>8.099999998934857</v>
+        <v>6.238677181086</v>
       </c>
       <c r="J40" t="n">
-        <v>8.099999998934857</v>
+        <v>6.238677181086</v>
       </c>
       <c r="K40" t="n">
-        <v>8.099999998934857</v>
+        <v>6.238677181086</v>
       </c>
       <c r="L40" t="n">
-        <v>8.099999998934857</v>
+        <v>6.238677181086</v>
       </c>
       <c r="M40" t="n">
-        <v>8.999999998816499</v>
+        <v>6.238677181086</v>
       </c>
       <c r="N40" t="n">
-        <v>8.999999998816499</v>
+        <v>6.238677181086</v>
       </c>
     </row>
     <row r="41">
@@ -2372,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>3.4846393609116</v>
       </c>
       <c r="F41" t="n">
-        <v>-9</v>
+        <v>-6.873874593171304</v>
       </c>
       <c r="G41" t="n">
         <v>-18</v>
@@ -2399,7 +2399,7 @@
         <v>-34.5525655411427</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>3.039999999422403</v>
       </c>
     </row>
     <row r="42">
@@ -2417,37 +2417,37 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>6.749999999568002</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>5.749999999568001</v>
+        <v>-0.999999999999996</v>
       </c>
       <c r="F42" t="n">
-        <v>-4.320028779147833e-10</v>
+        <v>-6.75</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.320028779147833e-10</v>
+        <v>-1.824300511129127</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7499999995200026</v>
+        <v>-4.674451084978319</v>
       </c>
       <c r="I42" t="n">
-        <v>0.7499999995200026</v>
+        <v>-3.710000000577597</v>
       </c>
       <c r="J42" t="n">
-        <v>-4.79997375180119e-10</v>
+        <v>-7.5</v>
       </c>
       <c r="K42" t="n">
-        <v>-4.79997375180119e-10</v>
+        <v>-7.5</v>
       </c>
       <c r="L42" t="n">
-        <v>-4.79997375180119e-10</v>
+        <v>-7.5</v>
       </c>
       <c r="M42" t="n">
-        <v>-4.79997375180119e-10</v>
+        <v>-4.460000000577597</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1.200280000014996</v>
       </c>
     </row>
     <row r="43">
@@ -2465,37 +2465,37 @@
         <v>0.0499999999999931</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>9.929218472589886</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>9.447290761809887</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>8.644077910509896</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>8.987167602566521</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9999999998100028</v>
+        <v>8.719429985466514</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>8.719429985466514</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>8.719429985466514</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>7.648479517066518</v>
       </c>
       <c r="L43" t="n">
-        <v>0.9999999998100028</v>
+        <v>7.11300428286651</v>
       </c>
       <c r="M43" t="n">
-        <v>0.9999999998100028</v>
+        <v>6.845266665766506</v>
       </c>
       <c r="N43" t="n">
-        <v>0.9999999998100028</v>
+        <v>6.845266665766506</v>
       </c>
     </row>
   </sheetData>
